--- a/doc/ue_object_reference.xlsx
+++ b/doc/ue_object_reference.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B53E0-0618-4B8D-93B3-022BC28422ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92083943-C023-4FB7-8E44-97A1FC2194F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="FReferencerFinder" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>如何运行时排查对象的引用关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +117,46 @@
   </si>
   <si>
     <t>例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class COREUOBJECT_API FReferencerFinder</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>static TArray&lt;UObject*&gt; GetAllReferencers(const TArray&lt;UObject*&gt;&amp; Referencees, const TSet&lt;UObject*&gt;* ObjectsToIgnore, EReferencerFinderFlags Flags = EReferencerFinderFlags::None);</t>
+  </si>
+  <si>
+    <t>static TArray&lt;UObject*&gt; GetAllReferencers(const TSet&lt;UObject*&gt;&amp; Referencees, const TSet&lt;UObject*&gt;* ObjectsToIgnore, EReferencerFinderFlags Flags = EReferencerFinderFlags::None);</t>
+  </si>
+  <si>
+    <t>/** Called when the initial load phase is complete and we're done registering native UObject classes */</t>
+  </si>
+  <si>
+    <t>static void NotifyRegistrationComplete();</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>可以找到对应对象的依赖关系，但是是一层的，没有递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己可以模拟实现递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE_DEBUGGABLE void HandleTokenStreamObjectReference(TArray&lt;UObject*&gt;&amp; ObjectsToSerialize, UObject* ReferencingObject, UObject*&amp; Object, const int32 TokenIndex, bool bAllowReferenceElimination)</t>
+  </si>
+  <si>
+    <t>实现了这个方法，内部有依赖关系的时候会回调这个方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +188,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,9 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -610,4 +659,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B464F4C-5ABF-4799-BDA1-03B99CDBDA7D}">
+  <dimension ref="B5:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>